--- a/R/kellysizing.xlsx
+++ b/R/kellysizing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hernandocortina/git/hockeystick/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA19F30-E495-DD44-AF0F-2D06EC95A646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE5D796-5AC1-4B46-A0C1-F1C20EF04D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{170D36C8-7001-284A-BC81-5DA02016DABB}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{170D36C8-7001-284A-BC81-5DA02016DABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Feb Temp</t>
   </si>
@@ -87,15 +87,34 @@
   </si>
   <si>
     <t>Q = 1-P</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Anlzd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -228,7 +247,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -255,9 +274,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +302,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,300 +647,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CFDBC9-765C-1E4A-BD3D-8D9239F64F2D}">
-  <dimension ref="D15:P23"/>
+  <dimension ref="C5:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="11" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="12" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="5:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="5" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E16" s="2"/>
-      <c r="G16" s="1" t="s">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="5">
-        <f>H17/2</f>
+      <c r="F7" s="26">
+        <v>45732</v>
+      </c>
+      <c r="G7" s="28">
+        <f ca="1">F7-TODAY()+1</f>
+        <v>17</v>
+      </c>
+      <c r="H7" s="5">
+        <f>I7/2</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="H17" s="4">
-        <f>I17-(L17/K17)</f>
+      <c r="I7" s="4">
+        <f>J7-(N7/L7)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="I17" s="19">
+      <c r="J7" s="19">
         <v>0.8</v>
       </c>
-      <c r="J17" s="20">
+      <c r="K7" s="20">
         <v>0.52</v>
       </c>
-      <c r="K17" s="6">
-        <f>(1-J17)/J17</f>
+      <c r="L7" s="6">
+        <f>(1-K7)/K7</f>
         <v>0.92307692307692302</v>
       </c>
-      <c r="L17" s="8">
-        <f>1-I17</f>
+      <c r="M7" s="27">
+        <f ca="1">((1+L7)^(365/G7))-1</f>
+        <v>1251915.2279856291</v>
+      </c>
+      <c r="N7" s="8">
+        <f>1-J7</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N17" s="14">
+      <c r="P7" s="14">
         <v>1530</v>
       </c>
-      <c r="O17" s="11">
-        <f>N17/$N$23</f>
+      <c r="Q7" s="11">
+        <f>P7/$P$13</f>
         <v>0.42429284525790351</v>
       </c>
-      <c r="P17" s="12">
-        <f>H17-O17</f>
+      <c r="R7" s="12">
+        <f>I7-Q7</f>
         <v>0.15904048807542986</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="D8" s="2">
         <v>14.3</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G21" si="0">H18/2</f>
+      <c r="F8" s="26">
+        <v>45748</v>
+      </c>
+      <c r="G8" s="28">
+        <f ca="1">F8-TODAY()+1</f>
+        <v>33</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ref="H8:H11" si="0">I8/2</f>
         <v>1.9230769230769273E-2</v>
       </c>
-      <c r="H18" s="4">
-        <f t="shared" ref="H18:H19" si="1">I18-(L18/K18)</f>
+      <c r="I8" s="4">
+        <f t="shared" ref="I8:I9" si="1">J8-(N8/L8)</f>
         <v>3.8461538461538547E-2</v>
       </c>
-      <c r="I18" s="21">
+      <c r="J8" s="21">
         <v>0.75</v>
       </c>
-      <c r="J18" s="22">
+      <c r="K8" s="22">
         <v>0.74</v>
       </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18:K21" si="2">(1-J18)/J18</f>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8:L11" si="2">(1-K8)/K8</f>
         <v>0.35135135135135137</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" ref="L18:L19" si="3">1-I18</f>
+      <c r="M8" s="27">
+        <f t="shared" ref="M8:M11" ca="1" si="3">((1+L8)^(365/G8))-1</f>
+        <v>26.949653828091947</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" ref="N8:N9" si="4">1-J8</f>
         <v>0.25</v>
       </c>
-      <c r="N18" s="15">
+      <c r="P8" s="15">
         <v>232</v>
       </c>
-      <c r="O18" s="9">
-        <f t="shared" ref="O18:O21" si="4">N18/$N$23</f>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q8:Q11" si="5">P8/$P$13</f>
         <v>6.4337215751525234E-2</v>
       </c>
-      <c r="P18" s="13">
-        <f t="shared" ref="P18:P22" si="5">H18-O18</f>
+      <c r="R8" s="13">
+        <f t="shared" ref="R8:R11" si="6">I8-Q8</f>
         <v>-2.5875677289986687E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="D9" s="2">
         <v>14.4</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="5">
+      <c r="F9" s="26">
+        <v>45748</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" ref="G9:G11" ca="1" si="7">F9-TODAY()+1</f>
+        <v>33</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>0.10526315789473667</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>0.21052631578947334</v>
       </c>
-      <c r="I19" s="21">
+      <c r="J9" s="21">
         <v>0.85</v>
       </c>
-      <c r="J19" s="22">
+      <c r="K9" s="22">
         <v>0.81</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L9" s="6">
         <f t="shared" si="2"/>
         <v>0.23456790123456783</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="3"/>
+      <c r="M9" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.2851624318983035</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="4"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="N19" s="15">
+      <c r="P9" s="15">
         <v>1155</v>
       </c>
-      <c r="O19" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q9" s="9">
+        <f t="shared" si="5"/>
         <v>0.32029950083194675</v>
       </c>
-      <c r="P19" s="13">
-        <f t="shared" si="5"/>
+      <c r="R9" s="13">
+        <f t="shared" si="6"/>
         <v>-0.10977318504247341</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="5">
+      <c r="F10" s="26">
+        <v>46022</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" ca="1" si="7"/>
+        <v>307</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>0.31481481481481488</v>
       </c>
-      <c r="H20" s="4">
-        <f t="shared" ref="H20" si="6">I20-(L20/K20)</f>
+      <c r="I10" s="4">
+        <f t="shared" ref="I10" si="8">J10-(N10/L10)</f>
         <v>0.62962962962962976</v>
       </c>
-      <c r="I20" s="19">
+      <c r="J10" s="19">
         <v>0.9</v>
       </c>
-      <c r="J20" s="22">
+      <c r="K10" s="22">
         <v>0.73</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L10" s="6">
         <f t="shared" si="2"/>
         <v>0.36986301369863017</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" ref="L20" si="7">1-I20</f>
+      <c r="M10" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45378063532114665</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10" si="9">1-J10</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="N20" s="15">
+      <c r="P10" s="15">
         <v>271</v>
       </c>
-      <c r="O20" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="9">
+        <f t="shared" si="5"/>
         <v>7.5152523571824739E-2</v>
       </c>
-      <c r="P20" s="13">
-        <f t="shared" si="5"/>
+      <c r="R10" s="13">
+        <f t="shared" si="6"/>
         <v>0.55447710605780498</v>
       </c>
     </row>
-    <row r="21" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="11" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="2">
+      <c r="D11" s="2">
         <v>250000</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="5">
+      <c r="F11" s="26">
+        <v>46054</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" ca="1" si="7"/>
+        <v>339</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>0.11206896551724144</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21" si="8">I21-(L21/K21)</f>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11" si="10">J11-(N11/L11)</f>
         <v>0.22413793103448287</v>
       </c>
-      <c r="I21" s="23">
+      <c r="J11" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J21" s="24">
+      <c r="K11" s="24">
         <v>0.42</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
         <v>1.3809523809523812</v>
       </c>
-      <c r="L21" s="8">
-        <f t="shared" ref="L21" si="9">1-I21</f>
+      <c r="M11" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5447553979269339</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" ref="N11" si="11">1-J11</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="N21" s="15">
+      <c r="P11" s="15">
         <v>39</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="4"/>
+      <c r="Q11" s="9">
+        <f t="shared" si="5"/>
         <v>1.0815307820299502E-2</v>
       </c>
-      <c r="P21" s="13">
-        <f t="shared" si="5"/>
+      <c r="R11" s="13">
+        <f t="shared" si="6"/>
         <v>0.21332262321418338</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G22" s="25">
-        <f>SUM(G17:G21)</f>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="H12" s="25">
+        <f>SUM(H7:H11)</f>
         <v>0.84304437412422895</v>
       </c>
-      <c r="H22" s="25">
-        <f>SUM(H17:H21)</f>
+      <c r="I12" s="25">
+        <f>SUM(I7:I11)</f>
         <v>1.6860887482484579</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="K22" s="7"/>
-      <c r="M22" t="s">
+      <c r="J12" s="1"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="O12" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="15">
+      <c r="P12" s="15">
         <v>379</v>
       </c>
-      <c r="P22" s="10"/>
+      <c r="R12" s="10"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="N23" s="16">
-        <f>SUM(N17:N22)</f>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="P13" s="16">
+        <f>SUM(P7:P12)</f>
         <v>3606</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P17:P21">
+  <conditionalFormatting sqref="R7:R11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
